--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD7ABA-441C-4438-AADA-C998D0B71FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD289C0E-A0F8-4383-A47C-9B6CAC6AA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
+    <workbookView xWindow="-20520" yWindow="2295" windowWidth="20640" windowHeight="11760" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>Enunciado</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Opção D / Imagem D</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -409,6 +412,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,9 +430,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,86 +871,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="e" vm="1">
+      <c r="C2" s="11" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="10">
         <v>4</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="10">
         <v>6</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -976,15 +985,15 @@
         <v>18</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1223,26 +1232,26 @@
         <v>25</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>26</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1262,15 +1271,15 @@
         <v>28</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E14" s="2" t="s">

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Documents\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD289C0E-A0F8-4383-A47C-9B6CAC6AA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F57341-E661-4EB8-85D8-217668135B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2295" windowWidth="20640" windowHeight="11760" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
+    <workbookView xWindow="-20520" yWindow="2292" windowWidth="20640" windowHeight="11760" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,51 +21,40 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="3"/>
         </ext>
       </extLst>
@@ -89,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t>Enunciado</t>
   </si>
@@ -251,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +434,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273627</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>243147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21026DC-4BEF-4375-BC89-F43FD5A9871E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="266700"/>
+          <a:ext cx="235527" cy="235527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,32 +898,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="53.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.399999999999999">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -896,16 +949,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.399999999999999">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
@@ -922,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="21">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -938,8 +989,10 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:8" ht="21">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="10"/>
@@ -948,7 +1001,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="21">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -960,6 +1013,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -968,16 +1022,22 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:K27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -995,7 +1055,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="21">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1024,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1053,7 +1113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="21">
       <c r="A4">
         <v>26</v>
       </c>
@@ -1082,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="21">
       <c r="A5">
         <v>27</v>
       </c>
@@ -1111,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="21">
       <c r="A6">
         <v>28</v>
       </c>
@@ -1140,7 +1200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="21">
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1166,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="21">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="21">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1227,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -1240,7 +1300,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20.25">
       <c r="A11">
         <v>26</v>
       </c>
@@ -1253,7 +1313,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12">
         <v>27</v>
       </c>
@@ -1266,7 +1326,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="21">
       <c r="A13">
         <v>28</v>
       </c>
@@ -1281,7 +1341,7 @@
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="21">
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="21">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="21">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="21">
       <c r="A17">
         <v>25</v>
       </c>
@@ -1397,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="21">
       <c r="A18">
         <v>26</v>
       </c>
@@ -1426,7 +1486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="21">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1455,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="21">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1484,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="21">
       <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="21">
       <c r="E24" s="7" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="21">
       <c r="E25" s="8" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="21">
       <c r="E26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +1636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="21">
       <c r="E27" s="8" t="s">
         <v>18</v>
       </c>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD289C0E-A0F8-4383-A47C-9B6CAC6AA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20178015-7846-4BE6-8992-D859E495EEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2295" windowWidth="20640" windowHeight="11760" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
   <si>
     <t>Enunciado</t>
   </si>
@@ -226,22 +226,7 @@
     <t>TA</t>
   </si>
   <si>
-    <t>Imagem Enunciado</t>
-  </si>
-  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Opção A / Imagem A</t>
-  </si>
-  <si>
-    <t>Opção B / Imagem B</t>
-  </si>
-  <si>
-    <t>Opção C / Imagem C</t>
-  </si>
-  <si>
-    <t>Opção D / Imagem D</t>
   </si>
   <si>
     <t>a</t>
@@ -843,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +839,7 @@
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
@@ -870,85 +855,77 @@
     <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>45</v>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>46</v>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
       </c>
       <c r="E2" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="10">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -956,10 +933,10 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1346,7 +1323,7 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="e" vm="2">
+      <c r="F16" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1375,7 +1352,7 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3" t="e" vm="1">
+      <c r="F17" s="3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1433,7 +1410,7 @@
       <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="3" t="e" vm="2">
+      <c r="F19" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="G19" s="3" t="s">

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20178015-7846-4BE6-8992-D859E495EEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F147546-63D4-4ED7-B104-6F36546FDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
+    <workbookView xWindow="-19620" yWindow="3195" windowWidth="15300" windowHeight="8325" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834FF5E-D8DA-48BE-9F49-40081217979A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DFA72D-2305-4756-B9E3-25B7AFB3D7BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Enunciado</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Organize a palavra corretamente:</t>
+  </si>
+  <si>
+    <t>Traduza pineapple?</t>
   </si>
 </sst>
 </file>
@@ -186,14 +189,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,8 +214,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC900"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FF00579E"/>
-      <color rgb="FFFFC900"/>
       <color rgb="FF215C98"/>
     </mruColors>
   </colors>
@@ -614,15 +627,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.58203125" bestFit="1" customWidth="1"/>
@@ -643,25 +656,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -669,22 +682,22 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>8</v>
       </c>
     </row>
@@ -692,42 +705,48 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="D11" s="6"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DFA72D-2305-4756-B9E3-25B7AFB3D7BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0149BB2-0D28-4256-A7A3-DD085224A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Enunciado</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>Traduza pineapple?</t>
+  </si>
+  <si>
+    <t>Lista de Atividades pelo Excel Creator Author</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +132,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,18 +154,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00579E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,18 +182,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,7 +208,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,10 +222,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00579E"/>
+      <color rgb="FF215C98"/>
       <color rgb="FFFFC900"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FF00579E"/>
-      <color rgb="FF215C98"/>
     </mruColors>
   </colors>
   <extLst>
@@ -229,85 +237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,128 +556,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.4140625" customWidth="1"/>
-    <col min="8" max="8" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.4140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="7"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0149BB2-0D28-4256-A7A3-DD085224A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA26F3F0-B0DD-490B-B921-E5E2684BD081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -133,6 +133,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -208,7 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,13 +560,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
@@ -584,7 +585,7 @@
     <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA26F3F0-B0DD-490B-B921-E5E2684BD081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5A900C-865C-4109-BACC-BBD3505CBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Enunciado</t>
   </si>
@@ -85,13 +96,61 @@
   </si>
   <si>
     <t>Lista de Atividades pelo Excel Creator Author</t>
+  </si>
+  <si>
+    <t>Arrasta e Solta</t>
+  </si>
+  <si>
+    <t>Como é feito o chocolate?</t>
+  </si>
+  <si>
+    <t>Cacau</t>
+  </si>
+  <si>
+    <t>Morango</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Associar</t>
+  </si>
+  <si>
+    <t>Associe</t>
+  </si>
+  <si>
+    <t>opção 1 - opção 3 - opção 2 - opção 4</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Maçã</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Arvore</t>
+  </si>
+  <si>
+    <t>Jogo da memória</t>
+  </si>
+  <si>
+    <t>Ache as cartas certas</t>
+  </si>
+  <si>
+    <t>2 + 2</t>
+  </si>
+  <si>
+    <t>4 + 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,14 +179,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,10 +247,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -212,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,17 +607,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
@@ -586,102 +636,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\PI\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0149BB2-0D28-4256-A7A3-DD085224A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451140FE-1699-4EF1-99CB-7B5025CC3591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Enunciado</t>
   </si>
@@ -85,13 +85,19 @@
   </si>
   <si>
     <t>Lista de Atividades pelo Excel Creator Author</t>
+  </si>
+  <si>
+    <t>Selecione a Imagem</t>
+  </si>
+  <si>
+    <t>Selecionar Imagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +243,261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1555750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>881933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF12E04-1EC9-41BF-A619-90E73E956E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="1460500"/>
+          <a:ext cx="800100" cy="754933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>844900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C240B-2080-4E33-BEC9-EA4C1EF04FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8045450" y="1422400"/>
+          <a:ext cx="756000" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1560278</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>870300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583E55E-40A6-4090-B2F5-66032681B167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="1447800"/>
+          <a:ext cx="518878" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1770750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>806800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697B1FDF-4588-48E2-9C8E-2F5E4DDF4CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13379450" y="1384300"/>
+          <a:ext cx="799200" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1345300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>907150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52627092-35F6-4D2D-A1A2-877AF69EAB8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15836900" y="1441450"/>
+          <a:ext cx="799200" cy="799200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,33 +819,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4140625" customWidth="1"/>
+    <col min="8" max="8" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -595,7 +856,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -641,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -656,7 +917,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -679,7 +940,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="76" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="D11" s="2"/>
     </row>
   </sheetData>
@@ -688,5 +962,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\PI\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451140FE-1699-4EF1-99CB-7B5025CC3591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64301BF-5F5D-4E3E-9BC7-0F456DE40CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -249,23 +249,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1555750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1010000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>881933</xdr:rowOff>
+      <xdr:rowOff>844900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
+        <xdr:cNvPr id="7" name="Imagem 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF12E04-1EC9-41BF-A619-90E73E956E49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C240B-2080-4E33-BEC9-EA4C1EF04FB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -287,35 +287,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5918200" y="1460500"/>
-          <a:ext cx="800100" cy="754933"/>
+          <a:off x="7912100" y="1422400"/>
+          <a:ext cx="756000" cy="756000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1274528</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>844900</xdr:rowOff>
+      <xdr:rowOff>883000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
+        <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C240B-2080-4E33-BEC9-EA4C1EF04FB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583E55E-40A6-4090-B2F5-66032681B167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,8 +337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8045450" y="1422400"/>
-          <a:ext cx="756000" cy="756000"/>
+          <a:off x="10363200" y="1460500"/>
+          <a:ext cx="518878" cy="756000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -349,28 +349,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1560278</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1237350</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>870300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
+        <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583E55E-40A6-4090-B2F5-66032681B167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697B1FDF-4588-48E2-9C8E-2F5E4DDF4CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -387,40 +387,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10648950" y="1447800"/>
-          <a:ext cx="518878" cy="756000"/>
+          <a:off x="12846050" y="1447800"/>
+          <a:ext cx="799200" cy="756000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1770750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1427850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>806800</xdr:rowOff>
+      <xdr:rowOff>811900</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
+    <xdr:pic macro="[0]!Imagem12_Clique">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
+        <xdr:cNvPr id="13" name="Imagem 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697B1FDF-4588-48E2-9C8E-2F5E4DDF4CC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52627092-35F6-4D2D-A1A2-877AF69EAB8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -437,40 +437,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13379450" y="1384300"/>
-          <a:ext cx="799200" cy="756000"/>
+          <a:off x="15919450" y="1346200"/>
+          <a:ext cx="799200" cy="799200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1345300</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1288150</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>907150</xdr:rowOff>
+      <xdr:rowOff>775050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagem 12">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52627092-35F6-4D2D-A1A2-877AF69EAB8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609B6A35-BE3C-41F5-911B-6682A71F6472}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -487,8 +487,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15836900" y="1441450"/>
-          <a:ext cx="799200" cy="799200"/>
+          <a:off x="5651500" y="1352550"/>
+          <a:ext cx="799200" cy="756000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,10 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\PI\ExcelNode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64301BF-5F5D-4E3E-9BC7-0F456DE40CB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D6E75D-ED3B-4BAD-B9BB-7A4E853DC46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Enunciado</t>
   </si>
@@ -85,19 +85,13 @@
   </si>
   <si>
     <t>Lista de Atividades pelo Excel Creator Author</t>
-  </si>
-  <si>
-    <t>Selecione a Imagem</t>
-  </si>
-  <si>
-    <t>Selecionar Imagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,261 +237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1010000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>844900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C240B-2080-4E33-BEC9-EA4C1EF04FB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7912100" y="1422400"/>
-          <a:ext cx="756000" cy="756000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1274528</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>883000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583E55E-40A6-4090-B2F5-66032681B167}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="1460500"/>
-          <a:ext cx="518878" cy="756000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1237350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>870300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697B1FDF-4588-48E2-9C8E-2F5E4DDF4CC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12846050" y="1447800"/>
-          <a:ext cx="799200" cy="756000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1427850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>811900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="[0]!Imagem12_Clique">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagem 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52627092-35F6-4D2D-A1A2-877AF69EAB8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15919450" y="1346200"/>
-          <a:ext cx="799200" cy="799200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1288150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>775050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609B6A35-BE3C-41F5-911B-6682A71F6472}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5651500" y="1352550"/>
-          <a:ext cx="799200" cy="756000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,32 +560,32 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.4140625" customWidth="1"/>
-    <col min="8" max="8" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.4140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -857,7 +596,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="20">
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -880,7 +619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -903,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20">
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -918,7 +657,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="20">
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -941,20 +680,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="76" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
+    <row r="6" spans="1:7" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
     </row>
   </sheetData>
@@ -963,6 +698,5 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D6E75D-ED3B-4BAD-B9BB-7A4E853DC46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEE1FB-DA7A-44F0-B4E0-1C6BF137B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Enunciado</t>
   </si>
@@ -85,6 +85,54 @@
   </si>
   <si>
     <t>Lista de Atividades pelo Excel Creator Author</t>
+  </si>
+  <si>
+    <t>Arrasta e Solta</t>
+  </si>
+  <si>
+    <t>Como é feito o chocolate?</t>
+  </si>
+  <si>
+    <t>Cacau</t>
+  </si>
+  <si>
+    <t>Morango</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Associar</t>
+  </si>
+  <si>
+    <t>Jogo da Memoria</t>
+  </si>
+  <si>
+    <t>Associe</t>
+  </si>
+  <si>
+    <t>Opção 1 - Opção 3 - Opção 2 - Opção 4</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Maça</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Arvore</t>
+  </si>
+  <si>
+    <t>Ache as cartas certas</t>
+  </si>
+  <si>
+    <t>2 + 2</t>
+  </si>
+  <si>
+    <t>4 + 4</t>
   </si>
 </sst>
 </file>
@@ -560,14 +608,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
@@ -680,14 +728,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEE1FB-DA7A-44F0-B4E0-1C6BF137B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945668C4-6C70-4AF1-818A-083DE700AA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Associar</t>
   </si>
   <si>
-    <t>Jogo da Memoria</t>
-  </si>
-  <si>
     <t>Associe</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>4 + 4</t>
+  </si>
+  <si>
+    <t>Jogo da memória</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,39 +756,39 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="5">
         <v>4</v>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945668C4-6C70-4AF1-818A-083DE700AA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063331F8-814F-4F1D-AF1B-CB3550551714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Enunciado</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Organize a palavra corretamente:</t>
   </si>
   <si>
-    <t>Traduza pineapple?</t>
-  </si>
-  <si>
     <t>Lista de Atividades pelo Excel Creator Author</t>
   </si>
   <si>
@@ -133,13 +130,19 @@
   </si>
   <si>
     <t>Jogo da memória</t>
+  </si>
+  <si>
+    <t>Opção 1 - Opção 3 | Opção 2 - Opção 4</t>
+  </si>
+  <si>
+    <t>😜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +188,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="75"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,6 +271,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +618,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -690,12 +700,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="1.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -730,65 +740,65 @@
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="5">
         <v>4</v>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063331F8-814F-4F1D-AF1B-CB3550551714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9B5FC-8ED3-4505-AC91-41B2F103AACA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Enunciado</t>
   </si>
@@ -133,16 +133,13 @@
   </si>
   <si>
     <t>Opção 1 - Opção 3 | Opção 2 - Opção 4</t>
-  </si>
-  <si>
-    <t>😜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,10 +265,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,6 +292,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>969211</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2399631</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1132353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCABA4E9-D08E-4B3F-9CEF-1ABFA00F0A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2887579" y="1009316"/>
+          <a:ext cx="1430420" cy="951879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,44 +669,44 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4140625" customWidth="1"/>
+    <col min="8" max="8" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="25">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="20">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -677,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -700,13 +752,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="1.3">
+    <row r="4" spans="1:7" ht="94.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
@@ -715,7 +765,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -738,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -761,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -784,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -807,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -816,7 +866,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -825,7 +875,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="D11" s="2"/>
     </row>
   </sheetData>
@@ -834,5 +884,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Projeto Integrador\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063331F8-814F-4F1D-AF1B-CB3550551714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645090B9-FC2D-4A20-A1E2-0D1B9A9390FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Enunciado</t>
   </si>
   <si>
-    <t>Organizar</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Preenchimento</t>
   </si>
   <si>
@@ -66,76 +60,13 @@
     <t>Opção D</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>Organize a palavra corretamente:</t>
-  </si>
-  <si>
     <t>Lista de Atividades pelo Excel Creator Author</t>
   </si>
   <si>
-    <t>Arrasta e Solta</t>
-  </si>
-  <si>
-    <t>Como é feito o chocolate?</t>
-  </si>
-  <si>
-    <t>Cacau</t>
-  </si>
-  <si>
-    <t>Morango</t>
-  </si>
-  <si>
-    <t>Pera</t>
-  </si>
-  <si>
-    <t>Associar</t>
-  </si>
-  <si>
-    <t>Associe</t>
-  </si>
-  <si>
-    <t>Opção 1 - Opção 3 - Opção 2 - Opção 4</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>Maça</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Arvore</t>
-  </si>
-  <si>
-    <t>Ache as cartas certas</t>
-  </si>
-  <si>
-    <t>2 + 2</t>
-  </si>
-  <si>
-    <t>4 + 4</t>
-  </si>
-  <si>
-    <t>Jogo da memória</t>
-  </si>
-  <si>
-    <t>Opção 1 - Opção 3 | Opção 2 - Opção 4</t>
-  </si>
-  <si>
     <t>😜</t>
+  </si>
+  <si>
+    <t>Quanto é 5+5?</t>
   </si>
 </sst>
 </file>
@@ -268,10 +199,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +549,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,48 +575,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -702,13 +633,13 @@
     </row>
     <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="1.3">
       <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -717,95 +648,53 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>8</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Projeto Integrador\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645090B9-FC2D-4A20-A1E2-0D1B9A9390FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC88205-3CE6-4D97-9D8E-A622B9650AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -22,6 +22,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -226,6 +248,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,7 +635,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +727,9 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\Projeto Integrador\ExcelNode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC88205-3CE6-4D97-9D8E-A622B9650AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B0B81-24B0-4901-99F2-2536D695A8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -24,30 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Enunciado</t>
   </si>
@@ -85,17 +63,23 @@
     <t>Lista de Atividades pelo Excel Creator Author</t>
   </si>
   <si>
-    <t>😜</t>
-  </si>
-  <si>
     <t>Quanto é 5+5?</t>
+  </si>
+  <si>
+    <t>dsaas</t>
+  </si>
+  <si>
+    <t>asdsad</t>
+  </si>
+  <si>
+    <t>asda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +232,223 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1327728</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>955964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61166819-AABA-4C11-82AC-E30B61C78E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963728" y="986752"/>
+          <a:ext cx="1200727" cy="800485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>454123</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C51438-44ED-4F4E-8B7A-4B3B76F0BA1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10044546" y="2101273"/>
+          <a:ext cx="246304" cy="138546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3101879</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>865908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD0F70C-D2B9-4992-A5EB-46DE6A38AC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4202545" y="1085272"/>
+          <a:ext cx="815879" cy="611909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556491</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799715</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3832EA05-030E-40A1-A702-8F2DB85EE94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6063673" y="614219"/>
+          <a:ext cx="243224" cy="182418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,33 +835,33 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4140625" customWidth="1"/>
+    <col min="8" max="8" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -671,7 +872,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -694,16 +895,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -717,36 +916,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="1.3">
+    <row r="4" spans="1:7" ht="94.5">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5">
         <v>9</v>
       </c>
@@ -757,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -766,7 +965,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -775,7 +974,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -784,7 +983,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -793,7 +992,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -802,7 +1001,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="D11" s="2"/>
     </row>
   </sheetData>
@@ -811,5 +1010,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B0B81-24B0-4901-99F2-2536D695A8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BFB0A6-DFBA-4FC2-9948-57818C463DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Enunciado</t>
   </si>
@@ -66,13 +66,10 @@
     <t>Quanto é 5+5?</t>
   </si>
   <si>
-    <t>dsaas</t>
-  </si>
-  <si>
-    <t>asdsad</t>
-  </si>
-  <si>
-    <t>asda</t>
+    <t>amarelo</t>
+  </si>
+  <si>
+    <t>imagem</t>
   </si>
 </sst>
 </file>
@@ -127,7 +124,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="75"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -153,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,11 +182,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,10 +213,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,23 +250,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>155479</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334818</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1327728</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>955964</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658090</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>246302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61166819-AABA-4C11-82AC-E30B61C78E48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D17362-F267-4B3D-8E53-E525E19DBFDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -278,9 +290,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9963728" y="986752"/>
-          <a:ext cx="1200727" cy="800485"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="20135273" y="608060"/>
+          <a:ext cx="323272" cy="215515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,23 +303,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>454123</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>207819</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542636</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>240143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
+        <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C51438-44ED-4F4E-8B7A-4B3B76F0BA1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B9922D-82CB-4E03-937B-62CDFBB378F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -332,8 +344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10044546" y="2101273"/>
-          <a:ext cx="246304" cy="138546"/>
+          <a:off x="20019819" y="855902"/>
+          <a:ext cx="323272" cy="215514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,23 +356,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>253999</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184727</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3101879</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>865908</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>234758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
+        <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD0F70C-D2B9-4992-A5EB-46DE6A38AC37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47D0F31-E6B5-490F-A354-12E889E96653}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,61 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4202545" y="1085272"/>
-          <a:ext cx="815879" cy="611909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>556491</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>36946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>799715</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>219364</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3832EA05-030E-40A1-A702-8F2DB85EE94D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6063673" y="614219"/>
-          <a:ext cx="243224" cy="182418"/>
+          <a:off x="19985182" y="1096819"/>
+          <a:ext cx="334818" cy="223212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,10 +792,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BFA463-777B-4935-B79F-E795BA6B4C27}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -861,18 +820,18 @@
     <col min="29" max="31" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="20">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="20">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -894,15 +853,20 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20">
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -915,27 +879,25 @@
       <c r="G3" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="94.5">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="20">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="20">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -945,7 +907,9 @@
       <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
       <c r="E5" s="5">
         <v>9</v>
       </c>
@@ -955,8 +919,9 @@
       <c r="G5" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="20">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -964,8 +929,9 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="20">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="20">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -973,8 +939,9 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="20">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="20">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -982,8 +949,9 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="20">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="20">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -991,8 +959,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="20">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="20">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1000,8 +969,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="D11" s="2"/>
     </row>
   </sheetData>

--- a/ModeloCreatorAuthor.xlsx
+++ b/ModeloCreatorAuthor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\ExcelNode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BFB0A6-DFBA-4FC2-9948-57818C463DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F9EC5-F4FE-43A1-B675-FD157970F6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8BFFE650-50D8-45D1-9439-0B8BA1F2417D}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>amarelo</t>
   </si>
   <si>
-    <t>imagem</t>
+    <t>Push</t>
   </si>
 </sst>
 </file>
@@ -186,18 +186,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,14 +215,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,23 +258,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>334818</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428584</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>30787</xdr:rowOff>
+      <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>658090</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>741436</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>246302</xdr:rowOff>
+      <xdr:rowOff>230269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D17362-F267-4B3D-8E53-E525E19DBFDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D48228-4EFD-4D7A-8A78-8E32828143C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -290,9 +298,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="20135273" y="608060"/>
-          <a:ext cx="323272" cy="215515"/>
+        <a:xfrm>
+          <a:off x="10265514" y="602389"/>
+          <a:ext cx="312852" cy="207178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -303,23 +311,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219364</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>24629</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1847275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542636</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2235940</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>240143</xdr:rowOff>
+      <xdr:rowOff>11546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B9922D-82CB-4E03-937B-62CDFBB378F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51C24C6-08EE-475D-BC9D-BBE23139DB4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,8 +352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20019819" y="855902"/>
-          <a:ext cx="323272" cy="215514"/>
+          <a:off x="13635184" y="603466"/>
+          <a:ext cx="388665" cy="239353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -356,23 +364,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184727</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1881909</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>234758</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2297547</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247516</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
+        <xdr:cNvPr id="10" name="Imagem 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47D0F31-E6B5-490F-A354-12E889E96653}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CBFC2E-9FB4-4DDB-95CE-8C0AF2F8D842}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -397,8 +405,61 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19985182" y="1096819"/>
-          <a:ext cx="334818" cy="223212"/>
+          <a:off x="16475364" y="591685"/>
+          <a:ext cx="415638" cy="233104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>759571</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1036507</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>230910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B62E8FB-EFDC-41E0-A96E-4B2268407BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18227641" y="623860"/>
+          <a:ext cx="276936" cy="186348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,8 +855,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -821,15 +882,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="3" t="s">
@@ -850,11 +912,8 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20">
@@ -868,24 +927,24 @@
         <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9">
+        <v>80</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="20">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -894,8 +953,8 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="20">
       <c r="A5" s="6" t="s">
@@ -916,20 +975,22 @@
       <c r="F5" s="5">
         <v>10</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10">
         <v>15</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="20">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="20">
       <c r="A7" s="6"/>
@@ -938,8 +999,8 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="20">
       <c r="A8" s="6"/>
@@ -948,8 +1009,8 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="20">
       <c r="A9" s="6"/>
@@ -958,8 +1019,8 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="20">
       <c r="A10" s="6"/>
@@ -968,8 +1029,8 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" s="2"/>
